--- a/src/analysis/2pop_fsc_testing_systematically/2pop_fsc26_testing_7/results.xlsx
+++ b/src/analysis/2pop_fsc_testing_systematically/2pop_fsc26_testing_7/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\popsimenv\src\analysis\2pop_fsc_testing_systematically\2pop_fsc26_testing_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3079D76-54C5-48BF-83DB-ABEE27654C00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A89700-6FF6-4F77-BF74-24E755BEF1ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -212,6 +212,143 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457838</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>105396</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{889B02F1-21E1-4DC4-BBA1-1023BF4A9A56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4572638" cy="4448796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>372136</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>105396</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FB73F31-1FDF-4912-A2C3-C938C5E90B87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4552950" y="0"/>
+          <a:ext cx="4734586" cy="4448796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>337297</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>176020</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95870</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2949F816-7A69-4E13-A5A6-62487E458198}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9223562" y="0"/>
+          <a:ext cx="4623634" cy="4398929"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -492,12 +629,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16ABE0C4-C8DC-40A9-B5E2-F3604F638D0A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>